--- a/Optimisation/dataset/no_linkage_constraints.xlsx
+++ b/Optimisation/dataset/no_linkage_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_D34A2429145672923B62D0A77C94C59E017A8177" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{35E853BB-846C-4674-B411-78110943A656}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_D34A2429145672923B62D0A77C94C59E017A8177" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2733804-62D2-462F-9E3D-CE0ACE3D35A3}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="2250" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36525" yWindow="6960" windowWidth="12675" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>DMZ1</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>Links</t>
+  </si>
+  <si>
+    <t>Ampang Intake</t>
+  </si>
+  <si>
+    <t>Batang Kali</t>
+  </si>
+  <si>
+    <t>Bernam River Head</t>
+  </si>
+  <si>
+    <t>Wangsa Maju</t>
+  </si>
+  <si>
+    <t>Sungai Tengi</t>
   </si>
 </sst>
 </file>
@@ -453,37 +453,42 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -503,7 +508,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -523,7 +528,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -543,7 +548,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -563,7 +568,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
